--- a/biology/Zoologie/Grand_Batara/Grand_Batara.xlsx
+++ b/biology/Zoologie/Grand_Batara/Grand_Batara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taraba major
 Le Grand Batara (Taraba major) est une espèce de passereaux en grande partie sédentaire de la famille des Thamnophilidae (Thamnophilidés en français).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Batara mesure environ 20 cm. Les deux sexes sont pourvus d'une huppe et d'iris écarlates. Toutefois, le mâle est plus coloré avec du noir sur le dessus ainsi que sur la tête. Le blanc est présent sous forme de taches sur les plumes couvrant les ailes, d'un liseré sur les rémiges primaires et sur tout l'abdomen tandis que les flancs sont gris. La femelle, quant à elle, est brun-roussâtre avec le dessous blanc.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire est éclectique puisque cet oiseau se nourrit d'insectes (guêpes, fourmis, sauterelles, ...), de crustacés, de batraciens (crapauds, grenouilles, ...) et de petits rongeurs.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se trouve sur une grande partie du Mexique et de l'Amérique centrale ainsi qu'en Amérique du Sud, à l'exception du Chili et de l'Uruguay. Il fréquente principalement les sous-bois à la végétation bien dense.
 </t>
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, en forme de coupe, suspendu est lié aux branches par des fibres végétales. La structure est faite d'un mélange de paille, de feuilles, de tiges, etc. La femelle y pond 2 ou 3 œufs qu'elle couve la nuit tandis que le mâle prend le relais le jour, et ce, pendant une quinzaine de jours. Les petits quittent le nid environ 2 semaines après l'éclosion.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des dix sous-espèces suivantes (ordre phylogénique) :
 Taraba major melanocrissus P.L. Sclater, 1860 ;
